--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,11 @@
           <t>Odd_CS_Goleada_A_Lay</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>SnapshotTS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -667,10 +672,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H2" t="n">
         <v>3.05</v>
@@ -679,10 +684,10 @@
         <v>3.15</v>
       </c>
       <c r="J2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K2" t="n">
         <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.27</v>
@@ -697,16 +702,16 @@
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T2" t="n">
         <v>1.51</v>
@@ -718,22 +723,22 @@
         <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>9.6</v>
@@ -745,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -773,6 +778,11 @@
       </c>
       <c r="AO2" t="n">
         <v>16.5</v>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -802,10 +812,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -814,10 +824,10 @@
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.32</v>
@@ -832,10 +842,10 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>1.41</v>
@@ -853,7 +863,7 @@
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
@@ -865,25 +875,25 @@
         <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
         <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>16.5</v>
@@ -892,7 +902,7 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -901,13 +911,18 @@
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>930</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -937,25 +952,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
@@ -970,7 +985,7 @@
         <v>1.49</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -979,7 +994,7 @@
         <v>4.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>1.69</v>
@@ -1000,7 +1015,7 @@
         <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1024,25 +1039,30 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1092,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
         <v>1.57</v>
@@ -1081,13 +1101,13 @@
         <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.31</v>
@@ -1105,7 +1125,7 @@
         <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
         <v>1.36</v>
@@ -1117,7 +1137,7 @@
         <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
@@ -1129,19 +1149,19 @@
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>36</v>
@@ -1150,34 +1170,39 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1210,22 +1235,22 @@
         <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I6" t="n">
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1237,7 +1262,7 @@
         <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1246,7 +1271,7 @@
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.86</v>
@@ -1258,16 +1283,16 @@
         <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,10 +1304,10 @@
         <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>13.5</v>
@@ -1291,16 +1316,16 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,10 +1334,15 @@
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1372,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H7" t="n">
         <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.48</v>
@@ -1366,16 +1396,16 @@
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
         <v>1.19</v>
@@ -1387,37 +1417,37 @@
         <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
         <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
         <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
         <v>18</v>
@@ -1426,7 +1456,7 @@
         <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>80</v>
@@ -1435,19 +1465,24 @@
         <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1486,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,13 +1545,13 @@
         <v>1.59</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,7 +1560,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
         <v>2.3</v>
@@ -1546,7 +1581,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
         <v>40</v>
@@ -1555,10 +1590,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
         <v>40</v>
@@ -1583,6 +1618,11 @@
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1652,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G9" t="n">
         <v>1.3</v>
@@ -1621,7 +1661,7 @@
         <v>11.5</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
         <v>6.8</v>
@@ -1639,7 +1679,7 @@
         <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
         <v>2.32</v>
@@ -1657,7 +1697,7 @@
         <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
         <v>1.07</v>
@@ -1678,46 +1718,51 @@
         <v>770</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
         <v>280</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>640</v>
+        <v>260</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>650</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
         <v>4.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>340</v>
+        <v>440</v>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1795,7 @@
         <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
         <v>3.15</v>
@@ -1774,7 +1819,7 @@
         <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
         <v>1.76</v>
@@ -1783,16 +1828,16 @@
         <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
         <v>1.42</v>
@@ -1801,10 +1846,10 @@
         <v>1.62</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
@@ -1822,7 +1867,7 @@
         <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
         <v>16.5</v>
@@ -1840,19 +1885,24 @@
         <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1935,7 @@
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
         <v>2.42</v>
@@ -1894,7 +1944,7 @@
         <v>2.66</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1927,7 +1977,7 @@
         <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>1.6</v>
@@ -1939,55 +1989,60 @@
         <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
         <v>19</v>
       </c>
-      <c r="AC11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AO11" t="n">
         <v>16</v>
       </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>18.5</v>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2072,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
         <v>3.8</v>
@@ -2062,13 +2117,13 @@
         <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
         <v>16</v>
@@ -2123,6 +2178,11 @@
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2152,31 +2212,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I13" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.02</v>
@@ -2200,10 +2260,10 @@
         <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2258,6 +2318,11 @@
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2311,31 +2376,31 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
         <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W14" t="n">
         <v>1.05</v>
@@ -2393,6 +2458,11 @@
       </c>
       <c r="AO14" t="n">
         <v>7.8</v>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2492,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,16 +2522,16 @@
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="T15" t="n">
         <v>1.84</v>
@@ -2470,10 +2540,10 @@
         <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2488,10 +2558,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2500,10 +2570,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2524,10 +2594,15 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2632,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2587,7 +2662,7 @@
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
         <v>1.59</v>
@@ -2605,10 +2680,10 @@
         <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2663,6 +2738,11 @@
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2704,19 +2784,19 @@
         <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
@@ -2728,22 +2808,22 @@
         <v>1.82</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
         <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X17" t="n">
         <v>20</v>
@@ -2798,6 +2878,11 @@
       </c>
       <c r="AO17" t="n">
         <v>120</v>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2912,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G18" t="n">
         <v>1.61</v>
@@ -2842,7 +2927,7 @@
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2851,16 +2936,16 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
         <v>1.38</v>
@@ -2933,6 +3018,11 @@
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +3055,13 @@
         <v>2.16</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2995,7 +3085,7 @@
         <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.44</v>
@@ -3010,10 +3100,10 @@
         <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3068,6 +3158,11 @@
       </c>
       <c r="AO19" t="n">
         <v>36</v>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3192,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I20" t="n">
         <v>2.22</v>
@@ -3133,10 +3228,10 @@
         <v>1.79</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
         <v>1.68</v>
@@ -3145,10 +3240,10 @@
         <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
@@ -3166,7 +3261,7 @@
         <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
@@ -3190,7 +3285,7 @@
         <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
         <v>970</v>
@@ -3203,6 +3298,11 @@
       </c>
       <c r="AO20" t="n">
         <v>14.5</v>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3332,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.56</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>6</v>
@@ -3253,43 +3353,43 @@
         <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
         <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
         <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
         <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
         <v>60</v>
@@ -3298,19 +3398,19 @@
         <v>180</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3322,7 +3422,7 @@
         <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
         <v>15.5</v>
@@ -3331,13 +3431,18 @@
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
         <v>6.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3472,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3397,16 +3502,16 @@
         <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
         <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T22" t="n">
         <v>1.05</v>
@@ -3415,10 +3520,10 @@
         <v>1.77</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3473,6 +3578,11 @@
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3615,7 @@
         <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
@@ -3514,7 +3624,7 @@
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
@@ -3526,7 +3636,7 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3553,34 +3663,34 @@
         <v>1.39</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z23" t="n">
         <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>13.5</v>
@@ -3589,7 +3699,7 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>42</v>
@@ -3608,6 +3718,11 @@
       </c>
       <c r="AO23" t="n">
         <v>55</v>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3637,46 +3752,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.45</v>
       </c>
-      <c r="I24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T24" t="n">
         <v>1.05</v>
@@ -3685,7 +3800,7 @@
         <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
         <v>1.81</v>
@@ -3743,6 +3858,11 @@
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3772,25 +3892,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G25" t="n">
         <v>3.85</v>
       </c>
       <c r="H25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -3802,10 +3922,10 @@
         <v>1.02</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3820,7 +3940,7 @@
         <v>1.63</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W25" t="n">
         <v>1.35</v>
@@ -3878,6 +3998,11 @@
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3925,7 +4050,7 @@
         <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -3949,7 +4074,7 @@
         <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
         <v>1.87</v>
@@ -4013,6 +4138,11 @@
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4172,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="K27" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.45</v>
@@ -4090,10 +4220,10 @@
         <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
         <v>9.199999999999999</v>
@@ -4148,6 +4278,11 @@
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4315,7 @@
         <v>4.8</v>
       </c>
       <c r="G28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H28" t="n">
         <v>1.87</v>
@@ -4225,7 +4360,7 @@
         <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W28" t="n">
         <v>1.22</v>
@@ -4283,6 +4418,11 @@
       </c>
       <c r="AO28" t="n">
         <v>24</v>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4452,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L29" t="n">
         <v>1.45</v>
@@ -4336,16 +4476,16 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="O29" t="n">
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -4354,16 +4494,16 @@
         <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4418,6 +4558,11 @@
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -4453,16 +4598,16 @@
         <v>2.9</v>
       </c>
       <c r="H30" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="I30" t="n">
         <v>3.05</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
         <v>1.44</v>
@@ -4504,40 +4649,40 @@
         <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF30" t="n">
         <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK30" t="n">
         <v>38</v>
@@ -4549,10 +4694,15 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4735,7 @@
         <v>3.2</v>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>2.32</v>
@@ -4603,7 +4753,7 @@
         <v>1.37</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
         <v>3.1</v>
@@ -4612,10 +4762,10 @@
         <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
         <v>1.27</v>
@@ -4630,10 +4780,10 @@
         <v>1.98</v>
       </c>
       <c r="V31" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W31" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
@@ -4688,6 +4838,11 @@
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -4717,91 +4872,91 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="I32" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>1.86</v>
       </c>
       <c r="R32" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="W32" t="n">
         <v>1.4</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4823,6 +4978,11 @@
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -4959,6 +5119,11 @@
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5094,6 +5259,11 @@
       <c r="AO34" t="n">
         <v>1000</v>
       </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5128,7 +5298,7 @@
         <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="I35" t="n">
         <v>1.49</v>
@@ -5137,7 +5307,7 @@
         <v>4.8</v>
       </c>
       <c r="K35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5228,6 +5398,11 @@
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -5263,13 +5438,13 @@
         <v>4.9</v>
       </c>
       <c r="H36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="I36" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
         <v>3.9</v>
@@ -5293,7 +5468,7 @@
         <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
         <v>3.9</v>
@@ -5311,7 +5486,7 @@
         <v>1.25</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8</v>
@@ -5320,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB36" t="n">
         <v>1000</v>
@@ -5332,16 +5507,16 @@
         <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5363,6 +5538,11 @@
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5572,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H37" t="n">
         <v>1.26</v>
@@ -5422,7 +5602,7 @@
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q37" t="n">
         <v>1.57</v>
@@ -5446,7 +5626,7 @@
         <v>1.06</v>
       </c>
       <c r="X37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y37" t="n">
         <v>9.800000000000001</v>
@@ -5455,10 +5635,10 @@
         <v>8.4</v>
       </c>
       <c r="AA37" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AB37" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AC37" t="n">
         <v>970</v>
@@ -5467,37 +5647,42 @@
         <v>11.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AG37" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI37" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AL37" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AM37" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN37" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="AO37" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -5536,7 +5721,7 @@
         <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J38" t="n">
         <v>3.05</v>
@@ -5554,19 +5739,19 @@
         <v>2.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P38" t="n">
         <v>1.54</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R38" t="n">
         <v>1.19</v>
       </c>
       <c r="S38" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T38" t="n">
         <v>2.08</v>
@@ -5584,19 +5769,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
         <v>22</v>
       </c>
       <c r="AA38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
         <v>15.5</v>
@@ -5608,31 +5793,36 @@
         <v>17</v>
       </c>
       <c r="AG38" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI38" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AK38" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="n">
         <v>70</v>
       </c>
       <c r="AM38" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AO38" t="n">
         <v>70</v>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -5665,16 +5855,16 @@
         <v>2.92</v>
       </c>
       <c r="G39" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I39" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K39" t="n">
         <v>3.45</v>
@@ -5686,28 +5876,28 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
       <c r="O39" t="n">
         <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="R39" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="T39" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U39" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V39" t="n">
         <v>1.57</v>
@@ -5716,7 +5906,7 @@
         <v>1.48</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
         <v>12</v>
@@ -5746,7 +5936,7 @@
         <v>14</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5761,13 +5951,18 @@
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
         <v>32</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>25</v>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5992,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H40" t="n">
         <v>4.3</v>
       </c>
       <c r="I40" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.5</v>
@@ -5821,25 +6016,25 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P40" t="n">
         <v>1.69</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R40" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
         <v>4.3</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U40" t="n">
         <v>1.89</v>
@@ -5848,13 +6043,13 @@
         <v>1.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,7 +6058,7 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC40" t="n">
         <v>7.8</v>
@@ -5878,7 +6073,7 @@
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
         <v>1000</v>
@@ -5903,6 +6098,11 @@
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -5953,7 +6153,7 @@
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
         <v>3.2</v>
@@ -6038,6 +6238,11 @@
       </c>
       <c r="AO41" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -6070,7 +6275,7 @@
         <v>2.5</v>
       </c>
       <c r="G42" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
@@ -6100,7 +6305,7 @@
         <v>1.73</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
         <v>1.27</v>
@@ -6109,70 +6314,75 @@
         <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U42" t="n">
         <v>2.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W42" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
         <v>60</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF42" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>970</v>
       </c>
-      <c r="AH42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI42" t="n">
+      <c r="AK42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL42" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>130</v>
       </c>
       <c r="AN42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO42" t="n">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -6208,7 +6418,7 @@
         <v>8.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I43" t="n">
         <v>1.51</v>
@@ -6226,10 +6436,10 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.7</v>
+        <v>2.68</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
         <v>2.68</v>
@@ -6238,13 +6448,13 @@
         <v>1.45</v>
       </c>
       <c r="R43" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="S43" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="U43" t="n">
         <v>2.2</v>
@@ -6308,6 +6518,11 @@
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -6337,7 +6552,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="G44" t="n">
         <v>1.83</v>
@@ -6385,7 +6600,7 @@
         <v>2.46</v>
       </c>
       <c r="V44" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W44" t="n">
         <v>2.2</v>
@@ -6443,6 +6658,11 @@
       </c>
       <c r="AO44" t="n">
         <v>36</v>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -6505,13 +6725,13 @@
         <v>3.15</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R45" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S45" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T45" t="n">
         <v>1.47</v>
@@ -6529,7 +6749,7 @@
         <v>44</v>
       </c>
       <c r="Y45" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="n">
         <v>48</v>
@@ -6544,7 +6764,7 @@
         <v>14.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE45" t="n">
         <v>46</v>
@@ -6553,7 +6773,7 @@
         <v>19.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH45" t="n">
         <v>18</v>
@@ -6562,13 +6782,13 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK45" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM45" t="n">
         <v>55</v>
@@ -6577,7 +6797,12 @@
         <v>6</v>
       </c>
       <c r="AO45" t="n">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -6616,7 +6841,7 @@
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J46" t="n">
         <v>3.3</v>
@@ -6637,7 +6862,7 @@
         <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q46" t="n">
         <v>2.06</v>
@@ -6646,13 +6871,13 @@
         <v>1.31</v>
       </c>
       <c r="S46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T46" t="n">
         <v>1.83</v>
       </c>
       <c r="U46" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V46" t="n">
         <v>1.35</v>
@@ -6664,7 +6889,7 @@
         <v>15</v>
       </c>
       <c r="Y46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z46" t="n">
         <v>1000</v>
@@ -6673,34 +6898,34 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC46" t="n">
         <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF46" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG46" t="n">
         <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
         <v>1000</v>
@@ -6709,10 +6934,15 @@
         <v>130</v>
       </c>
       <c r="AN46" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -6748,7 +6978,7 @@
         <v>2.16</v>
       </c>
       <c r="H47" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
         <v>3.85</v>
@@ -6766,22 +6996,22 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="O47" t="n">
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S47" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T47" t="n">
         <v>1.05</v>
@@ -6799,7 +7029,7 @@
         <v>32</v>
       </c>
       <c r="Y47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z47" t="n">
         <v>38</v>
@@ -6848,6 +7078,11 @@
       </c>
       <c r="AO47" t="n">
         <v>32</v>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -6916,7 +7151,7 @@
         <v>1.83</v>
       </c>
       <c r="S48" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T48" t="n">
         <v>1.51</v>
@@ -6983,6 +7218,11 @@
       </c>
       <c r="AO48" t="n">
         <v>28</v>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -7042,7 +7282,7 @@
         <v>1.19</v>
       </c>
       <c r="P49" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q49" t="n">
         <v>1.51</v>
@@ -7051,7 +7291,7 @@
         <v>1.53</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T49" t="n">
         <v>1.49</v>
@@ -7118,6 +7358,11 @@
       </c>
       <c r="AO49" t="n">
         <v>29</v>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -7177,7 +7422,7 @@
         <v>1.15</v>
       </c>
       <c r="P50" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q50" t="n">
         <v>1.47</v>
@@ -7253,6 +7498,11 @@
       </c>
       <c r="AO50" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -7288,7 +7538,7 @@
         <v>2.56</v>
       </c>
       <c r="H51" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I51" t="n">
         <v>3.05</v>
@@ -7312,7 +7562,7 @@
         <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q51" t="n">
         <v>1.87</v>
@@ -7321,13 +7571,13 @@
         <v>1.41</v>
       </c>
       <c r="S51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T51" t="n">
         <v>1.72</v>
       </c>
       <c r="U51" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V51" t="n">
         <v>1.48</v>
@@ -7360,7 +7610,7 @@
         <v>32</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG51" t="n">
         <v>11.5</v>
@@ -7375,7 +7625,7 @@
         <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
         <v>38</v>
@@ -7388,6 +7638,11 @@
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -7420,7 +7675,7 @@
         <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H52" t="n">
         <v>1.63</v>
@@ -7435,7 +7690,7 @@
         <v>4.7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7523,6 +7778,11 @@
       </c>
       <c r="AO52" t="n">
         <v>9</v>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -7552,7 +7812,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G53" t="n">
         <v>3.4</v>
@@ -7564,7 +7824,7 @@
         <v>2.34</v>
       </c>
       <c r="J53" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K53" t="n">
         <v>4</v>
@@ -7621,16 +7881,16 @@
         <v>16</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE53" t="n">
         <v>24</v>
       </c>
       <c r="AF53" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AG53" t="n">
         <v>15.5</v>
@@ -7642,10 +7902,10 @@
         <v>970</v>
       </c>
       <c r="AJ53" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AK53" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="n">
         <v>970</v>
@@ -7658,6 +7918,11 @@
       </c>
       <c r="AO53" t="n">
         <v>17.5</v>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -7794,6 +8059,11 @@
       <c r="AO54" t="n">
         <v>1000</v>
       </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7858,7 +8128,7 @@
         <v>1.59</v>
       </c>
       <c r="R55" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S55" t="n">
         <v>2.46</v>
@@ -7928,6 +8198,11 @@
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -7960,19 +8235,19 @@
         <v>2.14</v>
       </c>
       <c r="G56" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>1.09</v>
       </c>
       <c r="I56" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J56" t="n">
-        <v>3.25</v>
+        <v>2.68</v>
       </c>
       <c r="K56" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7981,88 +8256,93 @@
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="O56" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="R56" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S56" t="n">
-        <v>3.65</v>
+        <v>2.28</v>
       </c>
       <c r="T56" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U56" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V56" t="n">
         <v>1.31</v>
       </c>
       <c r="W56" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="X56" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP56" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -8095,7 +8375,7 @@
         <v>1.67</v>
       </c>
       <c r="G57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>4.1</v>
@@ -8107,7 +8387,7 @@
         <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.35</v>
@@ -8122,10 +8402,10 @@
         <v>1.33</v>
       </c>
       <c r="P57" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R57" t="n">
         <v>1.18</v>
@@ -8198,6 +8478,11 @@
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP57" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -8227,22 +8512,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I58" t="n">
         <v>4.3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="K58" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.47</v>
@@ -8266,7 +8551,7 @@
         <v>1.19</v>
       </c>
       <c r="S58" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T58" t="n">
         <v>2.06</v>
@@ -8333,6 +8618,11 @@
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP58" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -8368,16 +8658,16 @@
         <v>2.08</v>
       </c>
       <c r="H59" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I59" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8386,7 +8676,7 @@
         <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.31</v>
@@ -8395,28 +8685,28 @@
         <v>1.99</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R59" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="S59" t="n">
         <v>3.3</v>
       </c>
       <c r="T59" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="U59" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V59" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W59" t="n">
         <v>1.92</v>
       </c>
       <c r="X59" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Y59" t="n">
         <v>970</v>
@@ -8425,13 +8715,13 @@
         <v>970</v>
       </c>
       <c r="AA59" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD59" t="n">
         <v>970</v>
@@ -8440,13 +8730,13 @@
         <v>55</v>
       </c>
       <c r="AF59" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG59" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH59" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI59" t="n">
         <v>60</v>
@@ -8455,19 +8745,24 @@
         <v>28</v>
       </c>
       <c r="AK59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL59" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AM59" t="n">
         <v>110</v>
       </c>
       <c r="AN59" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO59" t="n">
         <v>55</v>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -8497,7 +8792,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -8506,10 +8801,10 @@
         <v>2.84</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K60" t="n">
         <v>3.2</v>
@@ -8521,7 +8816,7 @@
         <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="O60" t="n">
         <v>1.43</v>
@@ -8533,10 +8828,10 @@
         <v>2.28</v>
       </c>
       <c r="R60" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S60" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T60" t="n">
         <v>1.9</v>
@@ -8545,64 +8840,69 @@
         <v>1.97</v>
       </c>
       <c r="V60" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W60" t="n">
         <v>1.5</v>
       </c>
       <c r="X60" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y60" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA60" t="n">
         <v>970</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC60" t="n">
         <v>6.8</v>
       </c>
       <c r="AD60" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF60" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG60" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI60" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>55</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AK60" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO60" t="n">
         <v>50</v>
       </c>
-      <c r="AK60" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>40</v>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -8632,22 +8932,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G61" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H61" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I61" t="n">
         <v>2.48</v>
       </c>
       <c r="J61" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K61" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8656,13 +8956,13 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>1.37</v>
+        <v>1.97</v>
       </c>
       <c r="O61" t="n">
         <v>1.62</v>
       </c>
       <c r="P61" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="Q61" t="n">
         <v>2.66</v>
@@ -8671,52 +8971,52 @@
         <v>1.12</v>
       </c>
       <c r="S61" t="n">
-        <v>1.61</v>
+        <v>5.1</v>
       </c>
       <c r="T61" t="n">
         <v>1.05</v>
       </c>
       <c r="U61" t="n">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="V61" t="n">
         <v>1.67</v>
       </c>
       <c r="W61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X61" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI61" t="n">
         <v>1000</v>
@@ -8738,6 +9038,11 @@
       </c>
       <c r="AO61" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -8767,13 +9072,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G62" t="n">
         <v>1.46</v>
       </c>
       <c r="H62" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I62" t="n">
         <v>13</v>
@@ -8791,16 +9096,16 @@
         <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O62" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P62" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R62" t="n">
         <v>1.25</v>
@@ -8818,61 +9123,66 @@
         <v>1.08</v>
       </c>
       <c r="W62" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X62" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC62" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>11</v>
-      </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE62" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AF62" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>340</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>12</v>
-      </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="n">
         <v>450</v>
       </c>
       <c r="AN62" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO62" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -8902,7 +9212,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="G63" t="n">
         <v>2.08</v>
@@ -8932,10 +9242,10 @@
         <v>1.43</v>
       </c>
       <c r="P63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R63" t="n">
         <v>1.26</v>
@@ -8944,16 +9254,16 @@
         <v>4.3</v>
       </c>
       <c r="T63" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U63" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V63" t="n">
         <v>1.22</v>
       </c>
       <c r="W63" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X63" t="n">
         <v>12</v>
@@ -8998,7 +9308,7 @@
         <v>25</v>
       </c>
       <c r="AL63" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM63" t="n">
         <v>160</v>
@@ -9008,6 +9318,11 @@
       </c>
       <c r="AO63" t="n">
         <v>120</v>
+      </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -9061,7 +9376,7 @@
         <v>1.15</v>
       </c>
       <c r="N64" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O64" t="n">
         <v>1.66</v>
@@ -9143,6 +9458,11 @@
       </c>
       <c r="AO64" t="n">
         <v>970</v>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -9238,7 +9558,7 @@
         <v>85</v>
       </c>
       <c r="AB65" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC65" t="n">
         <v>7.8</v>
@@ -9271,13 +9591,18 @@
         <v>34</v>
       </c>
       <c r="AM65" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN65" t="n">
         <v>13.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -9349,10 +9674,10 @@
         <v>4.2</v>
       </c>
       <c r="T66" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U66" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V66" t="n">
         <v>1.86</v>
@@ -9413,6 +9738,11 @@
       </c>
       <c r="AO66" t="n">
         <v>22</v>
+      </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -9490,22 +9820,22 @@
         <v>1.86</v>
       </c>
       <c r="V67" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W67" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X67" t="n">
         <v>10.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z67" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA67" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB67" t="n">
         <v>7.2</v>
@@ -9514,10 +9844,10 @@
         <v>8</v>
       </c>
       <c r="AD67" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE67" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF67" t="n">
         <v>9.6</v>
@@ -9532,7 +9862,7 @@
         <v>110</v>
       </c>
       <c r="AJ67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK67" t="n">
         <v>22</v>
@@ -9548,6 +9878,11 @@
       </c>
       <c r="AO67" t="n">
         <v>130</v>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -9589,7 +9924,7 @@
         <v>4.4</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K68" t="n">
         <v>3.7</v>
@@ -9607,7 +9942,7 @@
         <v>1.39</v>
       </c>
       <c r="P68" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q68" t="n">
         <v>2.14</v>
@@ -9643,7 +9978,7 @@
         <v>100</v>
       </c>
       <c r="AB68" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC68" t="n">
         <v>8.4</v>
@@ -9673,7 +10008,7 @@
         <v>24</v>
       </c>
       <c r="AL68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM68" t="n">
         <v>140</v>
@@ -9683,6 +10018,11 @@
       </c>
       <c r="AO68" t="n">
         <v>75</v>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -9712,19 +10052,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="G69" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H69" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I69" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J69" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K69" t="n">
         <v>3.8</v>
@@ -9736,19 +10076,19 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="O69" t="n">
         <v>1.27</v>
       </c>
       <c r="P69" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="R69" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S69" t="n">
         <v>2.74</v>
@@ -9760,10 +10100,10 @@
         <v>1.05</v>
       </c>
       <c r="V69" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W69" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9818,6 +10158,11 @@
       </c>
       <c r="AO69" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -9847,7 +10192,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G70" t="n">
         <v>2.42</v>
@@ -9856,7 +10201,7 @@
         <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J70" t="n">
         <v>3.15</v>
@@ -9871,7 +10216,7 @@
         <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O70" t="n">
         <v>1.44</v>
@@ -9880,7 +10225,7 @@
         <v>1.68</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R70" t="n">
         <v>1.25</v>
@@ -9953,6 +10298,11 @@
       </c>
       <c r="AO70" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -9994,13 +10344,13 @@
         <v>2.7</v>
       </c>
       <c r="J71" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K71" t="n">
         <v>3.9</v>
       </c>
       <c r="L71" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M71" t="n">
         <v>1.06</v>
@@ -10012,10 +10362,10 @@
         <v>1.28</v>
       </c>
       <c r="P71" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R71" t="n">
         <v>1.36</v>
@@ -10024,10 +10374,10 @@
         <v>3.2</v>
       </c>
       <c r="T71" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U71" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V71" t="n">
         <v>1.58</v>
@@ -10088,6 +10438,11 @@
       </c>
       <c r="AO71" t="n">
         <v>26</v>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -10117,19 +10472,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
         <v>3.4</v>
       </c>
       <c r="H72" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I72" t="n">
         <v>2.56</v>
       </c>
       <c r="J72" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="n">
         <v>3.8</v>
@@ -10165,64 +10520,69 @@
         <v>2.12</v>
       </c>
       <c r="V72" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W72" t="n">
         <v>1.42</v>
       </c>
       <c r="X72" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AA72" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB72" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD72" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE72" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF72" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG72" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH72" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI72" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AL72" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AO72" t="n">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -10261,7 +10621,7 @@
         <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J73" t="n">
         <v>3.55</v>
@@ -10270,7 +10630,7 @@
         <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
@@ -10282,19 +10642,19 @@
         <v>1.28</v>
       </c>
       <c r="P73" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R73" t="n">
         <v>1.4</v>
       </c>
       <c r="S73" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="T73" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U73" t="n">
         <v>2.22</v>
@@ -10358,6 +10718,11 @@
       </c>
       <c r="AO73" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -10399,16 +10764,16 @@
         <v>2.04</v>
       </c>
       <c r="J74" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K74" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L74" t="n">
         <v>1.35</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
         <v>4.5</v>
@@ -10417,7 +10782,7 @@
         <v>1.26</v>
       </c>
       <c r="P74" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q74" t="n">
         <v>1.79</v>
@@ -10426,7 +10791,7 @@
         <v>1.47</v>
       </c>
       <c r="S74" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T74" t="n">
         <v>1.71</v>
@@ -10462,7 +10827,7 @@
         <v>10.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF74" t="n">
         <v>32</v>
@@ -10483,16 +10848,21 @@
         <v>46</v>
       </c>
       <c r="AL74" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM74" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="n">
         <v>40</v>
       </c>
       <c r="AO74" t="n">
         <v>12</v>
+      </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -10528,7 +10898,7 @@
         <v>1.4</v>
       </c>
       <c r="H75" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I75" t="n">
         <v>13.5</v>
@@ -10628,6 +10998,11 @@
       </c>
       <c r="AO75" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -10657,22 +11032,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G76" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H76" t="n">
         <v>1.73</v>
       </c>
       <c r="I76" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="J76" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K76" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L76" t="n">
         <v>1.29</v>
@@ -10681,22 +11056,22 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="O76" t="n">
         <v>1.27</v>
       </c>
       <c r="P76" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="R76" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S76" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T76" t="n">
         <v>1.65</v>
@@ -10705,7 +11080,7 @@
         <v>1.05</v>
       </c>
       <c r="V76" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W76" t="n">
         <v>1.2</v>
@@ -10763,6 +11138,11 @@
       </c>
       <c r="AO76" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -10792,7 +11172,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G77" t="n">
         <v>1.68</v>
@@ -10816,7 +11196,7 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O77" t="n">
         <v>1.33</v>
@@ -10858,7 +11238,7 @@
         <v>180</v>
       </c>
       <c r="AB77" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC77" t="n">
         <v>8.800000000000001</v>
@@ -10898,6 +11278,11 @@
       </c>
       <c r="AO77" t="n">
         <v>110</v>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -10960,7 +11345,7 @@
         <v>1.69</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R78" t="n">
         <v>1.26</v>
@@ -11033,6 +11418,11 @@
       </c>
       <c r="AO78" t="n">
         <v>70</v>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -11092,7 +11482,7 @@
         <v>1.41</v>
       </c>
       <c r="P79" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q79" t="n">
         <v>2.12</v>
@@ -11104,7 +11494,7 @@
         <v>4.1</v>
       </c>
       <c r="T79" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U79" t="n">
         <v>1.94</v>
@@ -11113,7 +11503,7 @@
         <v>1.29</v>
       </c>
       <c r="W79" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11168,6 +11558,11 @@
       </c>
       <c r="AO79" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -11215,7 +11610,7 @@
         <v>3.15</v>
       </c>
       <c r="L80" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M80" t="n">
         <v>1.12</v>
@@ -11227,7 +11622,7 @@
         <v>1.56</v>
       </c>
       <c r="P80" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q80" t="n">
         <v>2.66</v>
@@ -11251,7 +11646,7 @@
         <v>1.48</v>
       </c>
       <c r="X80" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y80" t="n">
         <v>8.4</v>
@@ -11263,13 +11658,13 @@
         <v>120</v>
       </c>
       <c r="AB80" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD80" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE80" t="n">
         <v>42</v>
@@ -11303,6 +11698,11 @@
       </c>
       <c r="AO80" t="n">
         <v>55</v>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -11335,76 +11735,76 @@
         <v>1.68</v>
       </c>
       <c r="G81" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>8</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K81" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N81" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="O81" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="P81" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="R81" t="n">
         <v>1.18</v>
       </c>
       <c r="S81" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T81" t="n">
         <v>2.58</v>
       </c>
       <c r="U81" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V81" t="n">
         <v>1.12</v>
       </c>
       <c r="W81" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X81" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y81" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Z81" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA81" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC81" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD81" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AE81" t="n">
         <v>1000</v>
@@ -11413,31 +11813,36 @@
         <v>8</v>
       </c>
       <c r="AG81" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AI81" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK81" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL81" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
         <v>410</v>
       </c>
       <c r="AN81" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>570</v>
+        <v>1000</v>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -11467,7 +11872,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G82" t="n">
         <v>2.8</v>
@@ -11573,6 +11978,11 @@
       </c>
       <c r="AO82" t="n">
         <v>970</v>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -11653,7 +12063,7 @@
         <v>1.07</v>
       </c>
       <c r="W83" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="X83" t="n">
         <v>12</v>
@@ -11708,6 +12118,11 @@
       </c>
       <c r="AO83" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP83" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -11749,7 +12164,7 @@
         <v>3.6</v>
       </c>
       <c r="J84" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="K84" t="n">
         <v>3.1</v>
@@ -11770,7 +12185,7 @@
         <v>1.41</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R84" t="n">
         <v>1.13</v>
@@ -11791,37 +12206,37 @@
         <v>1.5</v>
       </c>
       <c r="X84" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Y84" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA84" t="n">
         <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AC84" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD84" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE84" t="n">
         <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG84" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AH84" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI84" t="n">
         <v>1000</v>
@@ -11843,6 +12258,11 @@
       </c>
       <c r="AO84" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP84" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -11878,7 +12298,7 @@
         <v>3.25</v>
       </c>
       <c r="H85" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I85" t="n">
         <v>2.88</v>
@@ -11926,10 +12346,10 @@
         <v>1.45</v>
       </c>
       <c r="X85" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y85" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z85" t="n">
         <v>1000</v>
@@ -11941,7 +12361,7 @@
         <v>1000</v>
       </c>
       <c r="AC85" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD85" t="n">
         <v>1000</v>
@@ -11978,6 +12398,11 @@
       </c>
       <c r="AO85" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -12013,13 +12438,13 @@
         <v>1.71</v>
       </c>
       <c r="H86" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I86" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
         <v>4.2</v>
@@ -12031,7 +12456,7 @@
         <v>1.12</v>
       </c>
       <c r="N86" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O86" t="n">
         <v>1.54</v>
@@ -12040,7 +12465,7 @@
         <v>1.54</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="R86" t="n">
         <v>1.19</v>
@@ -12073,7 +12498,7 @@
         <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC86" t="n">
         <v>1000</v>
@@ -12113,6 +12538,11 @@
       </c>
       <c r="AO86" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -12142,10 +12572,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G87" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H87" t="n">
         <v>2.66</v>
@@ -12172,10 +12602,10 @@
         <v>1.39</v>
       </c>
       <c r="P87" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R87" t="n">
         <v>1.29</v>
@@ -12193,7 +12623,7 @@
         <v>1.54</v>
       </c>
       <c r="W87" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X87" t="n">
         <v>14.5</v>
@@ -12248,6 +12678,11 @@
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -12286,7 +12721,7 @@
         <v>2.12</v>
       </c>
       <c r="I88" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J88" t="n">
         <v>2.8</v>
@@ -12301,13 +12736,13 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="O88" t="n">
         <v>1.23</v>
       </c>
       <c r="P88" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q88" t="n">
         <v>2.16</v>
@@ -12325,7 +12760,7 @@
         <v>1.05</v>
       </c>
       <c r="V88" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W88" t="n">
         <v>1.26</v>
@@ -12383,6 +12818,11 @@
       </c>
       <c r="AO88" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -12424,7 +12864,7 @@
         <v>2.84</v>
       </c>
       <c r="J89" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
@@ -12518,6 +12958,11 @@
       </c>
       <c r="AO89" t="n">
         <v>0</v>
+      </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -12547,7 +12992,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G90" t="n">
         <v>1.71</v>
@@ -12556,13 +13001,13 @@
         <v>5.7</v>
       </c>
       <c r="I90" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J90" t="n">
         <v>3.8</v>
       </c>
       <c r="K90" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
@@ -12580,7 +13025,7 @@
         <v>1.94</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R90" t="n">
         <v>1.33</v>
@@ -12613,29 +13058,29 @@
         <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD90" t="n">
         <v>1000</v>
       </c>
       <c r="AE90" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI90" t="n">
         <v>120</v>
       </c>
-      <c r="AF90" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ90" t="n">
         <v>1000</v>
       </c>
@@ -12653,6 +13098,11 @@
       </c>
       <c r="AO90" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -12685,7 +13135,7 @@
         <v>3.3</v>
       </c>
       <c r="G91" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
         <v>2.54</v>
@@ -12697,7 +13147,7 @@
         <v>2.92</v>
       </c>
       <c r="K91" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L91" t="n">
         <v>1.51</v>
@@ -12788,6 +13238,11 @@
       </c>
       <c r="AO91" t="n">
         <v>100</v>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -12924,6 +13379,11 @@
       <c r="AO92" t="n">
         <v>1000</v>
       </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12952,13 +13412,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G93" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I93" t="n">
         <v>4</v>
@@ -12982,7 +13442,7 @@
         <v>1.52</v>
       </c>
       <c r="P93" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q93" t="n">
         <v>2.56</v>
@@ -13003,7 +13463,7 @@
         <v>1.33</v>
       </c>
       <c r="W93" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X93" t="n">
         <v>9</v>
@@ -13015,10 +13475,10 @@
         <v>25</v>
       </c>
       <c r="AA93" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC93" t="n">
         <v>7</v>
@@ -13057,7 +13517,12 @@
         <v>34</v>
       </c>
       <c r="AO93" t="n">
-        <v>1000</v>
+        <v>990</v>
+      </c>
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -13105,16 +13570,16 @@
         <v>3.3</v>
       </c>
       <c r="L94" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
         <v>1.12</v>
       </c>
       <c r="N94" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O94" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P94" t="n">
         <v>1.59</v>
@@ -13126,7 +13591,7 @@
         <v>1.21</v>
       </c>
       <c r="S94" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T94" t="n">
         <v>2.16</v>
@@ -13193,6 +13658,11 @@
       </c>
       <c r="AO94" t="n">
         <v>120</v>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -13222,22 +13692,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="G95" t="n">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="H95" t="n">
         <v>1.04</v>
       </c>
       <c r="I95" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J95" t="n">
-        <v>1.03</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>950</v>
+        <v>3.85</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13246,10 +13716,10 @@
         <v>1.08</v>
       </c>
       <c r="N95" t="n">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="O95" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="P95" t="n">
         <v>1.24</v>
@@ -13258,10 +13728,10 @@
         <v>1.39</v>
       </c>
       <c r="R95" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S95" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T95" t="n">
         <v>1.05</v>
@@ -13270,10 +13740,10 @@
         <v>1.05</v>
       </c>
       <c r="V95" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W95" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -13328,6 +13798,11 @@
       </c>
       <c r="AO95" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -13381,10 +13856,10 @@
         <v>1.11</v>
       </c>
       <c r="N96" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O96" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P96" t="n">
         <v>1.6</v>
@@ -13396,19 +13871,19 @@
         <v>1.22</v>
       </c>
       <c r="S96" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T96" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U96" t="n">
         <v>1.87</v>
       </c>
       <c r="V96" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W96" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X96" t="n">
         <v>11.5</v>
@@ -13435,7 +13910,7 @@
         <v>48</v>
       </c>
       <c r="AF96" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG96" t="n">
         <v>17</v>
@@ -13463,6 +13938,11 @@
       </c>
       <c r="AO96" t="n">
         <v>55</v>
+      </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -13495,25 +13975,25 @@
         <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J97" t="n">
         <v>3.25</v>
       </c>
       <c r="K97" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
       </c>
       <c r="M97" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N97" t="n">
         <v>3</v>
@@ -13522,28 +14002,28 @@
         <v>1.41</v>
       </c>
       <c r="P97" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="R97" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S97" t="n">
         <v>3.75</v>
       </c>
       <c r="T97" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="U97" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="V97" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W97" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="X97" t="n">
         <v>12.5</v>
@@ -13598,6 +14078,11 @@
       </c>
       <c r="AO97" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP97" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -13627,22 +14112,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G98" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>3.1</v>
       </c>
       <c r="I98" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J98" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K98" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L98" t="n">
         <v>1.43</v>
@@ -13654,16 +14139,16 @@
         <v>2.26</v>
       </c>
       <c r="O98" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="P98" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R98" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S98" t="n">
         <v>4.1</v>
@@ -13678,7 +14163,7 @@
         <v>1.26</v>
       </c>
       <c r="W98" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13733,6 +14218,11 @@
       </c>
       <c r="AO98" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -13869,6 +14359,11 @@
       <c r="AO99" t="n">
         <v>1000</v>
       </c>
+      <c r="AP99" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13999,10 +14494,15 @@
         <v>130</v>
       </c>
       <c r="AN100" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO100" t="n">
         <v>110</v>
+      </c>
+      <c r="AP100" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -14035,25 +14535,25 @@
         <v>2.06</v>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H101" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I101" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
         <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L101" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="M101" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
         <v>2.48</v>
@@ -14062,16 +14562,16 @@
         <v>1.6</v>
       </c>
       <c r="P101" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="R101" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="S101" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="T101" t="n">
         <v>2.28</v>
@@ -14083,16 +14583,16 @@
         <v>1.25</v>
       </c>
       <c r="W101" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X101" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Y101" t="n">
         <v>11.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA101" t="n">
         <v>160</v>
@@ -14138,6 +14638,11 @@
       </c>
       <c r="AO101" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -14170,7 +14675,7 @@
         <v>2.72</v>
       </c>
       <c r="G102" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H102" t="n">
         <v>3.2</v>
@@ -14197,7 +14702,7 @@
         <v>1.64</v>
       </c>
       <c r="P102" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q102" t="n">
         <v>2.92</v>
@@ -14206,7 +14711,7 @@
         <v>1.15</v>
       </c>
       <c r="S102" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="T102" t="n">
         <v>2.24</v>
@@ -14215,19 +14720,19 @@
         <v>1.69</v>
       </c>
       <c r="V102" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W102" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X102" t="n">
         <v>7.6</v>
       </c>
       <c r="Y102" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA102" t="n">
         <v>70</v>
@@ -14251,10 +14756,10 @@
         <v>14</v>
       </c>
       <c r="AH102" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI102" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="n">
         <v>50</v>
@@ -14272,7 +14777,12 @@
         <v>60</v>
       </c>
       <c r="AO102" t="n">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="AP102" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -14305,10 +14815,10 @@
         <v>2.94</v>
       </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H103" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I103" t="n">
         <v>3.15</v>
@@ -14317,7 +14827,7 @@
         <v>2.92</v>
       </c>
       <c r="K103" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
         <v>1.61</v>
@@ -14326,28 +14836,28 @@
         <v>1.15</v>
       </c>
       <c r="N103" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="O103" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P103" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R103" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S103" t="n">
         <v>6.2</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="U103" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V103" t="n">
         <v>1.47</v>
@@ -14356,10 +14866,10 @@
         <v>1.46</v>
       </c>
       <c r="X103" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y103" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z103" t="n">
         <v>22</v>
@@ -14368,7 +14878,7 @@
         <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC103" t="n">
         <v>8.199999999999999</v>
@@ -14408,6 +14918,11 @@
       </c>
       <c r="AO103" t="n">
         <v>1000</v>
+      </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-20.xlsx
@@ -762,19 +762,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -801,28 +801,28 @@
         <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
         <v>55</v>
@@ -834,13 +834,13 @@
         <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -852,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -861,13 +861,13 @@
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -888,10 +888,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -900,16 +900,16 @@
         <v>10.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA2" t="n">
         <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>23</v>
@@ -918,14 +918,14 @@
         <v>38</v>
       </c>
       <c r="BF2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BG2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -977,19 +977,19 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>1.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.07</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
         <v>1.07</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
@@ -1165,7 +1165,7 @@
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -1207,19 +1207,19 @@
         <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>17.5</v>
@@ -1264,10 +1264,10 @@
         <v>7.6</v>
       </c>
       <c r="AR4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT4" t="n">
         <v>9.4</v>
@@ -1303,17 +1303,17 @@
         <v>10</v>
       </c>
       <c r="BE4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BF4" t="n">
         <v>6.8</v>
       </c>
       <c r="BG4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G5" t="n">
         <v>3.45</v>
@@ -1353,16 +1353,16 @@
         <v>2.74</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="K5" t="n">
         <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
@@ -1374,7 +1374,7 @@
         <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
         <v>2.68</v>
@@ -1386,13 +1386,13 @@
         <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="n">
         <v>1.69</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>1.41</v>
@@ -1458,56 +1458,56 @@
         <v>3.9</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AT5" t="n">
         <v>4</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AY5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
         <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
@@ -1664,7 +1664,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>6.2</v>
@@ -1676,7 +1676,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
         <v>6</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1744,10 +1744,10 @@
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1756,7 +1756,7 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
@@ -1765,7 +1765,7 @@
         <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
         <v>1.26</v>
@@ -1777,7 +1777,7 @@
         <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
         <v>1.29</v>
@@ -1846,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="AR7" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AS7" t="n">
         <v>6.4</v>
@@ -1870,7 +1870,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="BA7" t="n">
         <v>6.4</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.48</v>
@@ -1953,7 +1953,7 @@
         <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
         <v>1.38</v>
@@ -1974,10 +1974,10 @@
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X8" t="n">
         <v>9.800000000000001</v>
@@ -1986,10 +1986,10 @@
         <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AB8" t="n">
         <v>9.199999999999999</v>
@@ -1998,64 +1998,64 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>830</v>
       </c>
       <c r="AN8" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="AP8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.4</v>
+        <v>2.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.92</v>
+        <v>2.22</v>
       </c>
       <c r="AV8" t="n">
-        <v>4.3</v>
+        <v>2.68</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.3</v>
+        <v>2.64</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
@@ -2064,32 +2064,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.95</v>
+        <v>2.56</v>
       </c>
       <c r="BA8" t="n">
-        <v>4.4</v>
+        <v>2.66</v>
       </c>
       <c r="BB8" t="n">
-        <v>4.2</v>
+        <v>2.94</v>
       </c>
       <c r="BC8" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="BD8" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="BE8" t="n">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="BF8" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="BG8" t="n">
-        <v>4.4</v>
+        <v>2.66</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G9" t="n">
         <v>1.74</v>
       </c>
       <c r="H9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
         <v>9</v>
@@ -2159,7 +2159,7 @@
         <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -2171,7 +2171,7 @@
         <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
         <v>1.28</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
         <v>14</v>
@@ -2344,7 +2344,7 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
         <v>1.67</v>
@@ -2356,22 +2356,22 @@
         <v>2.52</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
         <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="n">
         <v>140</v>
@@ -2407,7 +2407,7 @@
         <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
         <v>46</v>
@@ -2419,7 +2419,7 @@
         <v>4.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AP10" t="n">
         <v>19.5</v>
@@ -2428,19 +2428,19 @@
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AT10" t="n">
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AW10" t="n">
         <v>12.5</v>
@@ -2452,7 +2452,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2467,7 +2467,7 @@
         <v>34</v>
       </c>
       <c r="BE10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BF10" t="n">
         <v>4.5</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
         <v>3.15</v>
@@ -2523,7 +2523,7 @@
         <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.47</v>
@@ -2538,7 +2538,7 @@
         <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -2550,7 +2550,7 @@
         <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
         <v>2.06</v>
@@ -2559,7 +2559,7 @@
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
@@ -2586,7 +2586,7 @@
         <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
@@ -2610,7 +2610,7 @@
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2637,7 +2637,7 @@
         <v>11.5</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AX11" t="n">
         <v>13.5</v>
@@ -2649,29 +2649,29 @@
         <v>16</v>
       </c>
       <c r="BA11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BD11" t="n">
         <v>7.2</v>
       </c>
-      <c r="BB11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>7</v>
-      </c>
       <c r="BE11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BG11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2702,25 +2702,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
         <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I12" t="n">
         <v>2.66</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
         <v>1.29</v>
@@ -3311,25 +3311,25 @@
         <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
         <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V15" t="n">
         <v>4</v>
@@ -3389,7 +3389,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AP15" t="n">
         <v>12.5</v>
@@ -3404,7 +3404,7 @@
         <v>8.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AU15" t="n">
         <v>11.5</v>
@@ -3419,35 +3419,35 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>5.7</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BA15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BC15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BD15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BE15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BF15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BG15" t="n">
         <v>5.7</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>2.44</v>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>2.3</v>
@@ -3723,7 +3723,7 @@
         <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
         <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.33</v>
@@ -4090,7 +4090,7 @@
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
         <v>1.54</v>
@@ -4099,7 +4099,7 @@
         <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
         <v>1.94</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -4305,7 +4305,7 @@
         <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
@@ -4320,7 +4320,7 @@
         <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
         <v>8.4</v>
@@ -4371,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT20" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF20" t="n">
         <v>12.5</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4457,13 +4457,13 @@
         <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -4472,22 +4472,22 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
         <v>1.71</v>
@@ -4496,13 +4496,13 @@
         <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
         <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
@@ -4511,7 +4511,7 @@
         <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AB21" t="n">
         <v>15.5</v>
@@ -4538,16 +4538,16 @@
         <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
         <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>36</v>
@@ -4598,7 +4598,7 @@
         <v>32</v>
       </c>
       <c r="BD21" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="BE21" t="n">
         <v>14</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
         <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.28</v>
@@ -4672,22 +4672,22 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
         <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
         <v>1.16</v>
@@ -4699,7 +4699,7 @@
         <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
         <v>60</v>
@@ -4759,7 +4759,7 @@
         <v>42</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT22" t="n">
         <v>10.5</v>
@@ -4771,7 +4771,7 @@
         <v>18</v>
       </c>
       <c r="AW22" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX22" t="n">
         <v>9.4</v>
@@ -4783,7 +4783,7 @@
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BB22" t="n">
         <v>13</v>
@@ -4795,17 +4795,17 @@
         <v>21</v>
       </c>
       <c r="BE22" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF22" t="n">
         <v>5.3</v>
       </c>
       <c r="BG22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4839,16 +4839,16 @@
         <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H23" t="n">
         <v>2.84</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>4.1</v>
@@ -4866,7 +4866,7 @@
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
         <v>1.71</v>
@@ -4875,7 +4875,7 @@
         <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T23" t="n">
         <v>1.05</v>
@@ -4884,10 +4884,10 @@
         <v>1.77</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5033,13 +5033,13 @@
         <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
@@ -5081,7 +5081,7 @@
         <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -5093,7 +5093,7 @@
         <v>27</v>
       </c>
       <c r="AA24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
         <v>9.199999999999999</v>
@@ -5159,7 +5159,7 @@
         <v>12.5</v>
       </c>
       <c r="AW24" t="n">
-        <v>34</v>
+        <v>7.2</v>
       </c>
       <c r="AX24" t="n">
         <v>13</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5224,10 +5224,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G25" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
@@ -5236,7 +5236,7 @@
         <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -5254,19 +5254,19 @@
         <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
@@ -5275,7 +5275,7 @@
         <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5621,13 +5621,13 @@
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
         <v>1.39</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6024,16 +6024,16 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
         <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P30" t="n">
         <v>1.79</v>
@@ -6263,7 +6263,7 @@
         <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>16</v>
@@ -6311,7 +6311,7 @@
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AT30" t="n">
         <v>9</v>
@@ -6323,7 +6323,7 @@
         <v>11</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AX30" t="n">
         <v>15</v>
@@ -6335,29 +6335,29 @@
         <v>15.5</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BB30" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BC30" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BD30" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BE30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BF30" t="n">
         <v>21</v>
       </c>
       <c r="BG30" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6391,19 +6391,19 @@
         <v>3.2</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H31" t="n">
         <v>2.28</v>
       </c>
       <c r="I31" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
         <v>1.37</v>
@@ -6412,40 +6412,40 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R31" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
         <v>1.98</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W31" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
         <v>17.5</v>
@@ -6496,7 +6496,7 @@
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AQ31" t="n">
         <v>3.25</v>
@@ -6508,16 +6508,16 @@
         <v>4.2</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU31" t="n">
         <v>6.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AX31" t="n">
         <v>16</v>
@@ -6526,32 +6526,32 @@
         <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BA31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BB31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC31" t="n">
         <v>4.4</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>4.3</v>
       </c>
       <c r="BD31" t="n">
         <v>4.4</v>
       </c>
       <c r="BE31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BF31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BG31" t="n">
         <v>20</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
         <v>1.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
         <v>2.9</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6776,13 +6776,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G33" t="n">
         <v>3.55</v>
       </c>
       <c r="H33" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="I33" t="n">
         <v>3.1</v>
@@ -6791,7 +6791,7 @@
         <v>2.82</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.37</v>
@@ -6800,16 +6800,16 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
         <v>1.2</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
         <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>110</v>
+        <v>940</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -6994,7 +6994,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
         <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>110</v>
+        <v>940</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -7188,22 +7188,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P35" t="n">
         <v>1.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -7272,10 +7272,10 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>19</v>
       </c>
       <c r="AR35" t="n">
         <v>30</v>
@@ -7284,40 +7284,40 @@
         <v>50</v>
       </c>
       <c r="AT35" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV35" t="n">
         <v>16</v>
       </c>
       <c r="AW35" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AX35" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY35" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ35" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BA35" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BB35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BC35" t="n">
         <v>11.5</v>
       </c>
       <c r="BD35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BE35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BF35" t="n">
         <v>1.01</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7361,19 +7361,19 @@
         <v>8</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="H36" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I36" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="J36" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K36" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -7394,7 +7394,7 @@
         <v>1.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S36" t="n">
         <v>2.24</v>
@@ -7406,7 +7406,7 @@
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="W36" t="n">
         <v>1.01</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G37" t="n">
         <v>2.28</v>
@@ -7564,40 +7564,40 @@
         <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R37" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V37" t="n">
         <v>1.35</v>
@@ -7606,43 +7606,43 @@
         <v>1.78</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE37" t="n">
         <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG37" t="n">
         <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
         <v>1000</v>
@@ -7663,13 +7663,13 @@
         <v>11</v>
       </c>
       <c r="AQ37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR37" t="n">
         <v>21</v>
       </c>
       <c r="AS37" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AT37" t="n">
         <v>8</v>
@@ -7684,7 +7684,7 @@
         <v>30</v>
       </c>
       <c r="AX37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY37" t="n">
         <v>9.800000000000001</v>
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="BA37" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BB37" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BC37" t="n">
         <v>22</v>
       </c>
       <c r="BD37" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BE37" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BF37" t="n">
         <v>16</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7770,13 +7770,13 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q38" t="n">
         <v>2.14</v>
@@ -7788,7 +7788,7 @@
         <v>4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U38" t="n">
         <v>1.86</v>
@@ -7797,7 +7797,7 @@
         <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X38" t="n">
         <v>14.5</v>
@@ -7863,7 +7863,7 @@
         <v>9.6</v>
       </c>
       <c r="AS38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AT38" t="n">
         <v>11.5</v>
@@ -7872,44 +7872,44 @@
         <v>7.2</v>
       </c>
       <c r="AV38" t="n">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="AW38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX38" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY38" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AZ38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BA38" t="n">
         <v>7</v>
       </c>
       <c r="BB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF38" t="n">
         <v>7.8</v>
       </c>
-      <c r="BC38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BG38" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7943,19 +7943,19 @@
         <v>13</v>
       </c>
       <c r="G39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H39" t="n">
         <v>1.26</v>
       </c>
       <c r="I39" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J39" t="n">
         <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.27</v>
@@ -7964,31 +7964,31 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O39" t="n">
         <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S39" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="T39" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="V39" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W39" t="n">
         <v>1.06</v>
@@ -7997,10 +7997,10 @@
         <v>30</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA39" t="n">
         <v>9.800000000000001</v>
@@ -8009,13 +8009,13 @@
         <v>970</v>
       </c>
       <c r="AC39" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AD39" t="n">
         <v>11.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF39" t="n">
         <v>160</v>
@@ -8024,25 +8024,25 @@
         <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AI39" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ39" t="n">
         <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AL39" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM39" t="n">
         <v>200</v>
       </c>
-      <c r="AM39" t="n">
-        <v>210</v>
-      </c>
       <c r="AN39" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AO39" t="n">
         <v>4.4</v>
@@ -8051,7 +8051,7 @@
         <v>21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AR39" t="n">
         <v>7.2</v>
@@ -8060,7 +8060,7 @@
         <v>8.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AU39" t="n">
         <v>13</v>
@@ -8072,38 +8072,38 @@
         <v>12.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AZ39" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="BA39" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="BB39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC39" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD39" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE39" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG39" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8134,13 +8134,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G40" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
         <v>3.4</v>
@@ -8200,10 +8200,10 @@
         <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
         <v>15.5</v>
@@ -8221,13 +8221,13 @@
         <v>25</v>
       </c>
       <c r="AI40" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ40" t="n">
         <v>48</v>
       </c>
       <c r="AK40" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL40" t="n">
         <v>70</v>
@@ -8263,7 +8263,7 @@
         <v>12.5</v>
       </c>
       <c r="AW40" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="AX40" t="n">
         <v>13.5</v>
@@ -8275,29 +8275,29 @@
         <v>19.5</v>
       </c>
       <c r="BA40" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB40" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="BC40" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="BD40" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="BE40" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF40" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="BG40" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8328,19 +8328,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="G41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.25</v>
       </c>
       <c r="K41" t="n">
         <v>3.45</v>
@@ -8376,7 +8376,7 @@
         <v>1.05</v>
       </c>
       <c r="V41" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W41" t="n">
         <v>1.48</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
         <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J42" t="n">
         <v>3.3</v>
@@ -8540,7 +8540,7 @@
         <v>3.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
@@ -8609,7 +8609,7 @@
         <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8910,16 +8910,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G44" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J44" t="n">
         <v>3.3</v>
@@ -8934,16 +8934,16 @@
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O44" t="n">
         <v>1.41</v>
       </c>
       <c r="P44" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
         <v>1.27</v>
@@ -8961,7 +8961,7 @@
         <v>1.45</v>
       </c>
       <c r="W44" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X44" t="n">
         <v>11.5</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9110,7 +9110,7 @@
         <v>8.6</v>
       </c>
       <c r="H45" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I45" t="n">
         <v>1.51</v>
@@ -9119,7 +9119,7 @@
         <v>4.7</v>
       </c>
       <c r="K45" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -9140,19 +9140,19 @@
         <v>1.46</v>
       </c>
       <c r="R45" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
         <v>2.16</v>
       </c>
       <c r="T45" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U45" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V45" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="W45" t="n">
         <v>1.14</v>
@@ -9215,7 +9215,7 @@
         <v>2.52</v>
       </c>
       <c r="AQ45" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AR45" t="n">
         <v>5.9</v>
@@ -9233,13 +9233,13 @@
         <v>5.7</v>
       </c>
       <c r="AW45" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AX45" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="AY45" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="AZ45" t="n">
         <v>4.5</v>
@@ -9254,20 +9254,20 @@
         <v>1.93</v>
       </c>
       <c r="BD45" t="n">
-        <v>10.5</v>
+        <v>1.92</v>
       </c>
       <c r="BE45" t="n">
-        <v>11</v>
+        <v>1.93</v>
       </c>
       <c r="BF45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="BG45" t="n">
         <v>3.8</v>
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
         <v>1.7</v>
       </c>
       <c r="G46" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H46" t="n">
         <v>4.3</v>
@@ -9334,16 +9334,16 @@
         <v>1.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="n">
         <v>2.24</v>
       </c>
       <c r="T46" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U46" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V46" t="n">
         <v>1.26</v>
@@ -9352,7 +9352,7 @@
         <v>2.2</v>
       </c>
       <c r="X46" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y46" t="n">
         <v>26</v>
@@ -9400,7 +9400,7 @@
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO46" t="n">
         <v>36</v>
@@ -9412,10 +9412,10 @@
         <v>21</v>
       </c>
       <c r="AR46" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AS46" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT46" t="n">
         <v>11.5</v>
@@ -9427,7 +9427,7 @@
         <v>16.5</v>
       </c>
       <c r="AW46" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX46" t="n">
         <v>12</v>
@@ -9439,7 +9439,7 @@
         <v>14</v>
       </c>
       <c r="BA46" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BB46" t="n">
         <v>16.5</v>
@@ -9451,17 +9451,17 @@
         <v>21</v>
       </c>
       <c r="BE46" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF46" t="n">
         <v>6</v>
       </c>
       <c r="BG46" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G47" t="n">
         <v>1.86</v>
@@ -9507,7 +9507,7 @@
         <v>4.5</v>
       </c>
       <c r="K47" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
         <v>1.22</v>
@@ -9516,7 +9516,7 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O47" t="n">
         <v>1.13</v>
@@ -9528,19 +9528,19 @@
         <v>1.41</v>
       </c>
       <c r="R47" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S47" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T47" t="n">
         <v>1.47</v>
       </c>
       <c r="U47" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W47" t="n">
         <v>2.16</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9689,7 +9689,7 @@
         <v>2.04</v>
       </c>
       <c r="G48" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
@@ -9698,7 +9698,7 @@
         <v>3.85</v>
       </c>
       <c r="J48" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K48" t="n">
         <v>4.5</v>
@@ -9737,7 +9737,7 @@
         <v>1.35</v>
       </c>
       <c r="W48" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X48" t="n">
         <v>32</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9892,7 +9892,7 @@
         <v>4.8</v>
       </c>
       <c r="J49" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K49" t="n">
         <v>5.1</v>
@@ -9916,19 +9916,19 @@
         <v>1.43</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S49" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T49" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U49" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V49" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W49" t="n">
         <v>2.26</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
         <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>3.85</v>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10462,13 +10462,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G52" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H52" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I52" t="n">
         <v>3.05</v>
@@ -10495,16 +10495,16 @@
         <v>2.06</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R52" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S52" t="n">
         <v>3.25</v>
       </c>
       <c r="T52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U52" t="n">
         <v>2.3</v>
@@ -10513,7 +10513,7 @@
         <v>1.48</v>
       </c>
       <c r="W52" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X52" t="n">
         <v>15.5</v>
@@ -10525,19 +10525,19 @@
         <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB52" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD52" t="n">
         <v>13</v>
       </c>
       <c r="AE52" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
         <v>16.5</v>
@@ -10546,7 +10546,7 @@
         <v>11.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI52" t="n">
         <v>42</v>
@@ -10555,19 +10555,19 @@
         <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN52" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AP52" t="n">
         <v>14.5</v>
@@ -10576,10 +10576,10 @@
         <v>11.5</v>
       </c>
       <c r="AR52" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AS52" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AT52" t="n">
         <v>10</v>
@@ -10591,10 +10591,10 @@
         <v>11.5</v>
       </c>
       <c r="AW52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX52" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY52" t="n">
         <v>10</v>
@@ -10603,29 +10603,29 @@
         <v>15</v>
       </c>
       <c r="BA52" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="BB52" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="BC52" t="n">
         <v>23</v>
       </c>
       <c r="BD52" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BE52" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="BF52" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="BG52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10662,13 +10662,13 @@
         <v>6.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I53" t="n">
         <v>1.78</v>
       </c>
       <c r="J53" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>4.7</v>
@@ -10692,13 +10692,13 @@
         <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S53" t="n">
         <v>2.74</v>
       </c>
       <c r="T53" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U53" t="n">
         <v>2.12</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10853,16 +10853,16 @@
         <v>3.2</v>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H54" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="I54" t="n">
         <v>2.34</v>
       </c>
       <c r="J54" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
@@ -10922,7 +10922,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE54" t="n">
         <v>24</v>
@@ -10967,7 +10967,7 @@
         <v>13.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AT54" t="n">
         <v>13</v>
@@ -10991,29 +10991,29 @@
         <v>13.5</v>
       </c>
       <c r="BA54" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BB54" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BD54" t="n">
         <v>6.8</v>
       </c>
-      <c r="BC54" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BE54" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BF54" t="n">
-        <v>6.2</v>
+        <v>24</v>
       </c>
       <c r="BG54" t="n">
         <v>11.5</v>
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11047,7 +11047,7 @@
         <v>4.2</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H55" t="n">
         <v>1.87</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11238,10 +11238,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G56" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H56" t="n">
         <v>3.8</v>
@@ -11256,43 +11256,43 @@
         <v>4.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P56" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R56" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S56" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="T56" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U56" t="n">
         <v>2.34</v>
       </c>
       <c r="V56" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W56" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="X56" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
         <v>1000</v>
@@ -11349,28 +11349,28 @@
         <v>4.7</v>
       </c>
       <c r="AQ56" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AR56" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AS56" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AT56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX56" t="n">
         <v>4.1</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>4</v>
       </c>
       <c r="AY56" t="n">
         <v>9.4</v>
@@ -11379,10 +11379,10 @@
         <v>12.5</v>
       </c>
       <c r="BA56" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BB56" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BC56" t="n">
         <v>13.5</v>
@@ -11391,7 +11391,7 @@
         <v>20</v>
       </c>
       <c r="BE56" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="BF56" t="n">
         <v>8</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11447,13 +11447,13 @@
         <v>2.68</v>
       </c>
       <c r="K57" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
         <v>2.74</v>
@@ -11486,7 +11486,7 @@
         <v>1.68</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y57" t="n">
         <v>1000</v>
@@ -11543,59 +11543,59 @@
         <v>1.01</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AU57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AV57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AW57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AX57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AY57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AZ57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BA57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BB57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BC57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BD57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BE57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BF57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BG57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11823,10 +11823,10 @@
         <v>2.24</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I59" t="n">
         <v>4.3</v>
@@ -11871,7 +11871,7 @@
         <v>1.3</v>
       </c>
       <c r="W59" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -11928,62 +11928,62 @@
         <v>1000</v>
       </c>
       <c r="AP59" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AR59" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AS59" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BB59" t="n">
         <v>4.2</v>
       </c>
-      <c r="AT59" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AW59" t="n">
+      <c r="BC59" t="n">
         <v>4.1</v>
       </c>
-      <c r="AX59" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BA59" t="n">
+      <c r="BD59" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF59" t="n">
         <v>4.2</v>
       </c>
-      <c r="BB59" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>4</v>
-      </c>
       <c r="BG59" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12014,22 +12014,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G60" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H60" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J60" t="n">
         <v>3.6</v>
       </c>
       <c r="K60" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -12044,13 +12044,13 @@
         <v>1.3</v>
       </c>
       <c r="P60" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R60" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S60" t="n">
         <v>3.25</v>
@@ -12059,16 +12059,16 @@
         <v>1.78</v>
       </c>
       <c r="U60" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V60" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W60" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X60" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y60" t="n">
         <v>970</v>
@@ -12086,16 +12086,16 @@
         <v>8.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE60" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF60" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG60" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
         <v>970</v>
@@ -12104,7 +12104,7 @@
         <v>60</v>
       </c>
       <c r="AJ60" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK60" t="n">
         <v>1000</v>
@@ -12113,71 +12113,71 @@
         <v>970</v>
       </c>
       <c r="AM60" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN60" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO60" t="n">
         <v>55</v>
       </c>
       <c r="AP60" t="n">
-        <v>5.8</v>
+        <v>13.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AR60" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AS60" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AU60" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV60" t="n">
-        <v>5.8</v>
+        <v>14.5</v>
       </c>
       <c r="AW60" t="n">
-        <v>7.6</v>
+        <v>40</v>
       </c>
       <c r="AX60" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY60" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ60" t="n">
         <v>15</v>
       </c>
       <c r="BA60" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="BB60" t="n">
         <v>20</v>
       </c>
       <c r="BC60" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF60" t="n">
         <v>6.2</v>
       </c>
-      <c r="BD60" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>5.7</v>
-      </c>
       <c r="BG60" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
         <v>2.84</v>
       </c>
       <c r="I61" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>3.05</v>
@@ -12250,13 +12250,13 @@
         <v>4.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U61" t="n">
         <v>1.97</v>
       </c>
       <c r="V61" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W61" t="n">
         <v>1.5</v>
@@ -12310,13 +12310,13 @@
         <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO61" t="n">
         <v>50</v>
       </c>
       <c r="AP61" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AQ61" t="n">
         <v>8.199999999999999</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12417,7 +12417,7 @@
         <v>2.8</v>
       </c>
       <c r="K62" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -12426,7 +12426,7 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="O62" t="n">
         <v>1.62</v>
@@ -12453,13 +12453,13 @@
         <v>1.67</v>
       </c>
       <c r="W62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X62" t="n">
         <v>9.4</v>
       </c>
       <c r="Y62" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z62" t="n">
         <v>18.5</v>
@@ -12510,7 +12510,7 @@
         <v>1000</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="AQ62" t="n">
         <v>2.32</v>
@@ -12522,40 +12522,40 @@
         <v>25</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU62" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AV62" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AW62" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AX62" t="n">
         <v>19</v>
       </c>
       <c r="AY62" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AZ62" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="BA62" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="BB62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BC62" t="n">
         <v>3.05</v>
       </c>
-      <c r="BC62" t="n">
-        <v>3</v>
-      </c>
       <c r="BD62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BE62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BF62" t="n">
         <v>3.05</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12623,10 +12623,10 @@
         <v>3.05</v>
       </c>
       <c r="O63" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P63" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="Q63" t="n">
         <v>2.24</v>
@@ -12635,7 +12635,7 @@
         <v>1.25</v>
       </c>
       <c r="S63" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T63" t="n">
         <v>2.58</v>
@@ -12647,7 +12647,7 @@
         <v>1.08</v>
       </c>
       <c r="W63" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -12716,7 +12716,7 @@
         <v>6.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="AU63" t="n">
         <v>9.800000000000001</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>2.08</v>
@@ -12799,7 +12799,7 @@
         <v>4.8</v>
       </c>
       <c r="I64" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J64" t="n">
         <v>3.1</v>
@@ -12823,7 +12823,7 @@
         <v>1.69</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R64" t="n">
         <v>1.26</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
         <v>2.1</v>
       </c>
       <c r="H66" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I66" t="n">
         <v>4.3</v>
@@ -13211,7 +13211,7 @@
         <v>2.08</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R66" t="n">
         <v>1.43</v>
@@ -13232,7 +13232,7 @@
         <v>1.9</v>
       </c>
       <c r="X66" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y66" t="n">
         <v>16.5</v>
@@ -13241,10 +13241,10 @@
         <v>30</v>
       </c>
       <c r="AA66" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB66" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC66" t="n">
         <v>7.8</v>
@@ -13256,19 +13256,19 @@
         <v>46</v>
       </c>
       <c r="AF66" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG66" t="n">
         <v>10.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI66" t="n">
         <v>55</v>
       </c>
       <c r="AJ66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK66" t="n">
         <v>21</v>
@@ -13277,7 +13277,7 @@
         <v>34</v>
       </c>
       <c r="AM66" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN66" t="n">
         <v>13.5</v>
@@ -13295,7 +13295,7 @@
         <v>27</v>
       </c>
       <c r="AS66" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AT66" t="n">
         <v>9.6</v>
@@ -13304,7 +13304,7 @@
         <v>7.4</v>
       </c>
       <c r="AV66" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AW66" t="n">
         <v>42</v>
@@ -13325,23 +13325,23 @@
         <v>22</v>
       </c>
       <c r="BC66" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BD66" t="n">
         <v>30</v>
       </c>
       <c r="BE66" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="BF66" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BG66" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13381,7 +13381,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J67" t="n">
         <v>3.2</v>
@@ -13414,13 +13414,13 @@
         <v>4.2</v>
       </c>
       <c r="T67" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U67" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V67" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W67" t="n">
         <v>1.3</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13566,10 +13566,10 @@
         </is>
       </c>
       <c r="F68" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.78</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.79</v>
       </c>
       <c r="H68" t="n">
         <v>5.9</v>
@@ -13581,7 +13581,7 @@
         <v>3.65</v>
       </c>
       <c r="K68" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L68" t="n">
         <v>1.51</v>
@@ -13593,7 +13593,7 @@
         <v>3.15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P68" t="n">
         <v>1.73</v>
@@ -13617,7 +13617,7 @@
         <v>1.19</v>
       </c>
       <c r="W68" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X68" t="n">
         <v>10.5</v>
@@ -13626,7 +13626,7 @@
         <v>16.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA68" t="n">
         <v>190</v>
@@ -13644,7 +13644,7 @@
         <v>100</v>
       </c>
       <c r="AF68" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG68" t="n">
         <v>10.5</v>
@@ -13653,7 +13653,7 @@
         <v>25</v>
       </c>
       <c r="AI68" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ68" t="n">
         <v>17.5</v>
@@ -13692,13 +13692,13 @@
         <v>7.6</v>
       </c>
       <c r="AV68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW68" t="n">
         <v>38</v>
       </c>
       <c r="AX68" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AY68" t="n">
         <v>9.6</v>
@@ -13707,7 +13707,7 @@
         <v>22</v>
       </c>
       <c r="BA68" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="BB68" t="n">
         <v>16</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13766,7 @@
         <v>2.08</v>
       </c>
       <c r="H69" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
         <v>4.4</v>
@@ -13850,7 +13850,7 @@
         <v>70</v>
       </c>
       <c r="AJ69" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK69" t="n">
         <v>24</v>
@@ -13862,7 +13862,7 @@
         <v>140</v>
       </c>
       <c r="AN69" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO69" t="n">
         <v>75</v>
@@ -13877,7 +13877,7 @@
         <v>26</v>
       </c>
       <c r="AS69" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AT69" t="n">
         <v>7.6</v>
@@ -13889,7 +13889,7 @@
         <v>15</v>
       </c>
       <c r="AW69" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AX69" t="n">
         <v>10.5</v>
@@ -13913,17 +13913,17 @@
         <v>32</v>
       </c>
       <c r="BE69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BF69" t="n">
         <v>15.5</v>
       </c>
       <c r="BG69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13978,16 +13978,16 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O70" t="n">
         <v>1.27</v>
       </c>
       <c r="P70" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R70" t="n">
         <v>1.33</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14760,7 +14760,7 @@
         <v>1.28</v>
       </c>
       <c r="P74" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q74" t="n">
         <v>1.77</v>
@@ -14772,7 +14772,7 @@
         <v>2.74</v>
       </c>
       <c r="T74" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="U74" t="n">
         <v>2.22</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14957,13 +14957,13 @@
         <v>2.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R75" t="n">
         <v>1.48</v>
       </c>
       <c r="S75" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T75" t="n">
         <v>1.71</v>
@@ -15056,7 +15056,7 @@
         <v>17.5</v>
       </c>
       <c r="AX75" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY75" t="n">
         <v>14.5</v>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15118,22 +15118,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G76" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="H76" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I76" t="n">
         <v>13.5</v>
       </c>
       <c r="J76" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="K76" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -15148,7 +15148,7 @@
         <v>1.17</v>
       </c>
       <c r="P76" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q76" t="n">
         <v>1.52</v>
@@ -15169,7 +15169,7 @@
         <v>1.08</v>
       </c>
       <c r="W76" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -15199,7 +15199,7 @@
         <v>11</v>
       </c>
       <c r="AG76" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH76" t="n">
         <v>1000</v>
@@ -15220,68 +15220,68 @@
         <v>1000</v>
       </c>
       <c r="AN76" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AO76" t="n">
         <v>1000</v>
       </c>
       <c r="AP76" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BB76" t="n">
         <v>4</v>
       </c>
-      <c r="AQ76" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>3.45</v>
-      </c>
       <c r="BC76" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="BD76" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="BE76" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="BF76" t="n">
         <v>3.65</v>
       </c>
       <c r="BG76" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15318,13 +15318,13 @@
         <v>6.6</v>
       </c>
       <c r="H77" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I77" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J77" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
         <v>5.2</v>
@@ -15342,25 +15342,25 @@
         <v>1.27</v>
       </c>
       <c r="P77" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T77" t="n">
         <v>1.83</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S77" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1.65</v>
       </c>
       <c r="U77" t="n">
         <v>1.05</v>
       </c>
       <c r="V77" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W77" t="n">
         <v>1.18</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15506,22 +15506,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="G78" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="H78" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="I78" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J78" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4.2</v>
       </c>
       <c r="L78" t="n">
         <v>1.42</v>
@@ -15530,76 +15530,76 @@
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O78" t="n">
         <v>1.33</v>
       </c>
       <c r="P78" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S78" t="n">
         <v>3.6</v>
       </c>
       <c r="T78" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U78" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V78" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W78" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="X78" t="n">
         <v>14</v>
       </c>
       <c r="Y78" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z78" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA78" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB78" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC78" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE78" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF78" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG78" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI78" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ78" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK78" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL78" t="n">
         <v>38</v>
@@ -15608,68 +15608,68 @@
         <v>130</v>
       </c>
       <c r="AN78" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO78" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AP78" t="n">
         <v>13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR78" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AS78" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AT78" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AU78" t="n">
         <v>8.4</v>
       </c>
       <c r="AV78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW78" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AX78" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY78" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA78" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB78" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="BC78" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BD78" t="n">
         <v>34</v>
       </c>
       <c r="BE78" t="n">
+        <v>60</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG78" t="n">
         <v>42</v>
       </c>
-      <c r="BF78" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BG78" t="n">
-        <v>40</v>
-      </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15715,7 +15715,7 @@
         <v>3.25</v>
       </c>
       <c r="K79" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L79" t="n">
         <v>1.01</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15897,7 +15897,7 @@
         <v>2.06</v>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H80" t="n">
         <v>3.9</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16157,7 +16157,7 @@
         <v>8.6</v>
       </c>
       <c r="AC81" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD81" t="n">
         <v>13.5</v>
@@ -16205,7 +16205,7 @@
         <v>14.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AT81" t="n">
         <v>7.8</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16285,7 +16285,7 @@
         <v>1.65</v>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H82" t="n">
         <v>8.199999999999999</v>
@@ -16303,7 +16303,7 @@
         <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N82" t="n">
         <v>2.7</v>
@@ -16327,13 +16327,13 @@
         <v>2.56</v>
       </c>
       <c r="U82" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V82" t="n">
         <v>1.12</v>
       </c>
       <c r="W82" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X82" t="n">
         <v>8.199999999999999</v>
@@ -16372,7 +16372,7 @@
         <v>270</v>
       </c>
       <c r="AJ82" t="n">
-        <v>580</v>
+        <v>16.5</v>
       </c>
       <c r="AK82" t="n">
         <v>34</v>
@@ -16390,7 +16390,7 @@
         <v>570</v>
       </c>
       <c r="AP82" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AQ82" t="n">
         <v>16.5</v>
@@ -16420,7 +16420,7 @@
         <v>10</v>
       </c>
       <c r="AZ82" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BA82" t="n">
         <v>15</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16500,13 +16500,13 @@
         <v>1.1</v>
       </c>
       <c r="N83" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O83" t="n">
         <v>1.46</v>
       </c>
       <c r="P83" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q83" t="n">
         <v>2.32</v>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16682,7 +16682,7 @@
         <v>15.5</v>
       </c>
       <c r="J84" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K84" t="n">
         <v>4.5</v>
@@ -16721,7 +16721,7 @@
         <v>1.07</v>
       </c>
       <c r="W84" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="X84" t="n">
         <v>12</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16978,7 +16978,7 @@
         <v>1.93</v>
       </c>
       <c r="AR85" t="n">
-        <v>2.12</v>
+        <v>15</v>
       </c>
       <c r="AS85" t="n">
         <v>2.26</v>
@@ -16996,7 +16996,7 @@
         <v>2.26</v>
       </c>
       <c r="AX85" t="n">
-        <v>2.08</v>
+        <v>11.5</v>
       </c>
       <c r="AY85" t="n">
         <v>2.06</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17288,7 +17288,7 @@
         <v>2.36</v>
       </c>
       <c r="R87" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S87" t="n">
         <v>4.8</v>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17452,7 +17452,7 @@
         <v>2.92</v>
       </c>
       <c r="H88" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I88" t="n">
         <v>2.88</v>
@@ -17461,7 +17461,7 @@
         <v>3.45</v>
       </c>
       <c r="K88" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -17476,19 +17476,19 @@
         <v>1.4</v>
       </c>
       <c r="P88" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R88" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S88" t="n">
         <v>3.7</v>
       </c>
       <c r="T88" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U88" t="n">
         <v>1.98</v>
@@ -17584,7 +17584,7 @@
         <v>5.9</v>
       </c>
       <c r="AZ88" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA88" t="n">
         <v>9</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18040,10 +18040,10 @@
         <v>7.6</v>
       </c>
       <c r="J91" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K91" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18610,13 +18610,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H94" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I94" t="n">
         <v>4</v>
@@ -18625,7 +18625,7 @@
         <v>3.05</v>
       </c>
       <c r="K94" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -18637,7 +18637,7 @@
         <v>2.74</v>
       </c>
       <c r="O94" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P94" t="n">
         <v>1.57</v>
@@ -18649,7 +18649,7 @@
         <v>1.2</v>
       </c>
       <c r="S94" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T94" t="n">
         <v>2.12</v>
@@ -18661,7 +18661,7 @@
         <v>1.33</v>
       </c>
       <c r="W94" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X94" t="n">
         <v>9</v>
@@ -18673,7 +18673,7 @@
         <v>25</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB94" t="n">
         <v>7.6</v>
@@ -18715,7 +18715,7 @@
         <v>34</v>
       </c>
       <c r="AO94" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AP94" t="n">
         <v>8</v>
@@ -18727,7 +18727,7 @@
         <v>22</v>
       </c>
       <c r="AS94" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AT94" t="n">
         <v>6.8</v>
@@ -18739,7 +18739,7 @@
         <v>15.5</v>
       </c>
       <c r="AW94" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AX94" t="n">
         <v>12</v>
@@ -18760,7 +18760,7 @@
         <v>28</v>
       </c>
       <c r="BD94" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="BE94" t="n">
         <v>46</v>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18807,10 +18807,10 @@
         <v>2.04</v>
       </c>
       <c r="G95" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H95" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I95" t="n">
         <v>5</v>
@@ -18822,13 +18822,13 @@
         <v>3.3</v>
       </c>
       <c r="L95" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M95" t="n">
         <v>1.12</v>
       </c>
       <c r="N95" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O95" t="n">
         <v>1.52</v>
@@ -18855,7 +18855,7 @@
         <v>1.25</v>
       </c>
       <c r="W95" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X95" t="n">
         <v>9</v>
@@ -18873,7 +18873,7 @@
         <v>7</v>
       </c>
       <c r="AC95" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD95" t="n">
         <v>20</v>
@@ -18906,7 +18906,7 @@
         <v>190</v>
       </c>
       <c r="AN95" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO95" t="n">
         <v>120</v>
@@ -18930,22 +18930,22 @@
         <v>6.8</v>
       </c>
       <c r="AV95" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AW95" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AX95" t="n">
         <v>10</v>
       </c>
       <c r="AY95" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AZ95" t="n">
         <v>21</v>
       </c>
       <c r="BA95" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="BB95" t="n">
         <v>21</v>
@@ -18954,7 +18954,7 @@
         <v>24</v>
       </c>
       <c r="BD95" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="BE95" t="n">
         <v>48</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19019,13 +19019,13 @@
         <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N96" t="n">
         <v>1.25</v>
       </c>
       <c r="O96" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P96" t="n">
         <v>1.24</v>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19192,22 +19192,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="G97" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K97" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K97" t="n">
-        <v>3.1</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
@@ -19222,140 +19222,140 @@
         <v>1.49</v>
       </c>
       <c r="P97" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="R97" t="n">
         <v>1.22</v>
       </c>
       <c r="S97" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="T97" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U97" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V97" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W97" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="X97" t="n">
         <v>9</v>
       </c>
       <c r="Y97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z97" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR97" t="n">
         <v>20</v>
       </c>
-      <c r="AA97" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP97" t="n">
+      <c r="AS97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT97" t="n">
         <v>7.4</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>30</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>5</v>
       </c>
       <c r="AU97" t="n">
         <v>6.6</v>
       </c>
       <c r="AV97" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE97" t="n">
         <v>13</v>
       </c>
-      <c r="AW97" t="n">
-        <v>32</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY97" t="n">
+      <c r="BF97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG97" t="n">
         <v>11.5</v>
       </c>
-      <c r="AZ97" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB97" t="n">
-        <v>34</v>
-      </c>
-      <c r="BC97" t="n">
-        <v>32</v>
-      </c>
-      <c r="BD97" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BE97" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF97" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG97" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19386,19 +19386,19 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G98" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K98" t="n">
         <v>3.6</v>
@@ -19416,10 +19416,10 @@
         <v>1.41</v>
       </c>
       <c r="P98" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R98" t="n">
         <v>1.22</v>
@@ -19437,7 +19437,7 @@
         <v>1.23</v>
       </c>
       <c r="W98" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X98" t="n">
         <v>12.5</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19882,52 +19882,52 @@
         <v>1000</v>
       </c>
       <c r="AP100" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AQ100" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="AR100" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="AS100" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT100" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU100" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AV100" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="AW100" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AX100" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AY100" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AZ100" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="BA100" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BB100" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="BC100" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="BD100" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="BE100" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF100" t="n">
         <v>1.01</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19977,7 +19977,7 @@
         <v>5.8</v>
       </c>
       <c r="I101" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J101" t="n">
         <v>4.2</v>
@@ -20010,7 +20010,7 @@
         <v>3</v>
       </c>
       <c r="T101" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U101" t="n">
         <v>2.04</v>
@@ -20070,7 +20070,7 @@
         <v>130</v>
       </c>
       <c r="AN101" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO101" t="n">
         <v>110</v>
@@ -20082,10 +20082,10 @@
         <v>18</v>
       </c>
       <c r="AR101" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AT101" t="n">
         <v>8.199999999999999</v>
@@ -20097,7 +20097,7 @@
         <v>19.5</v>
       </c>
       <c r="AW101" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AX101" t="n">
         <v>9</v>
@@ -20109,7 +20109,7 @@
         <v>17.5</v>
       </c>
       <c r="BA101" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BB101" t="n">
         <v>14</v>
@@ -20118,20 +20118,20 @@
         <v>14</v>
       </c>
       <c r="BD101" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE101" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BF101" t="n">
         <v>7.6</v>
       </c>
       <c r="BG101" t="n">
-        <v>70</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20174,10 +20174,10 @@
         <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L102" t="n">
         <v>1.56</v>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20356,7 +20356,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G103" t="n">
         <v>2.86</v>
@@ -20380,7 +20380,7 @@
         <v>1.15</v>
       </c>
       <c r="N103" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O103" t="n">
         <v>1.64</v>
@@ -20407,13 +20407,13 @@
         <v>1.41</v>
       </c>
       <c r="W103" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X103" t="n">
         <v>7.6</v>
       </c>
       <c r="Y103" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z103" t="n">
         <v>21</v>
@@ -20473,31 +20473,31 @@
         <v>18</v>
       </c>
       <c r="AS103" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT103" t="n">
         <v>6.4</v>
       </c>
       <c r="AU103" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV103" t="n">
         <v>14</v>
       </c>
       <c r="AW103" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AX103" t="n">
         <v>14</v>
       </c>
       <c r="AY103" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ103" t="n">
         <v>23</v>
       </c>
       <c r="BA103" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BB103" t="n">
         <v>32</v>
@@ -20506,20 +20506,20 @@
         <v>30</v>
       </c>
       <c r="BD103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF103" t="n">
         <v>9.6</v>
       </c>
-      <c r="BE103" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BF103" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="BG103" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
